--- a/Approximationen/AC Kosten.xlsx
+++ b/Approximationen/AC Kosten.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_EB6B1133B04C936C96366B20EDBDEFCCDC1637D8" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{3CA93CB4-C292-4BFC-A26C-E7B3505EA5E6}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diagramm" sheetId="2" r:id="rId1"/>
     <sheet name="Tabelle1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="191029" calcCompleted="0"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
   <si>
     <t>kW Kälte</t>
   </si>
@@ -53,15 +55,25 @@
   <si>
     <t>Auslegungs-Wärmeverhältnis:</t>
   </si>
+  <si>
+    <t xml:space="preserve">y = 0,0374x + 0,3129 </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -96,7 +108,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -106,6 +118,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -125,13 +140,25 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -221,54 +248,55 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>59.432953210660159</c:v>
+                  <c:v>55.662294387130743</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37.141958787033104</c:v>
+                  <c:v>31.72094702232722</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>85.792076449802181</c:v>
+                  <c:v>86.14729997921394</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>95.29604459624403</c:v>
+                  <c:v>97.714209302126378</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>103.71857114494588</c:v>
+                  <c:v>108.19967702729883</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>111.40508939490596</c:v>
+                  <c:v>117.94913645372949</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>125.2861881331185</c:v>
+                  <c:v>135.9561175448832</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>137.82186766725997</c:v>
+                  <c:v>152.61767943196585</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>165.66571195488891</c:v>
+                  <c:v>190.77622960194773</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>190.53586708809638</c:v>
+                  <c:v>225.96109061750815</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>235.46249522498124</c:v>
+                  <c:v>291.51713051909894</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>276.68956297538045</c:v>
+                  <c:v>353.37361003420403</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>353.15500672167474</c:v>
+                  <c:v>471.09787730991007</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>425.01783521717743</c:v>
+                  <c:v>584.21952933482453</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>494.10122167083989</c:v>
+                  <c:v>694.56173931789886</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2A61-4630-AC96-F93D546A883B}"/>
             </c:ext>
@@ -351,42 +379,43 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>71.630441176470583</c:v>
+                  <c:v>74.254900000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>143.33078235294118</c:v>
+                  <c:v>158.6217</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>188.37178235294118</c:v>
+                  <c:v>214.18369999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>226.46392352941177</c:v>
+                  <c:v>262.8381</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>260.55606470588236</c:v>
+                  <c:v>307.49250000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>292.64820588235295</c:v>
+                  <c:v>350.14690000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>359.78134705882354</c:v>
+                  <c:v>438.36330000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>425.96562941176472</c:v>
+                  <c:v>525.6721</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>497.09877058823531</c:v>
+                  <c:v>617.88850000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>616.41619411764702</c:v>
+                  <c:v>779.41370000000006</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>742.73361764705885</c:v>
+                  <c:v>947.9389000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2A61-4630-AC96-F93D546A883B}"/>
             </c:ext>
@@ -421,6 +450,44 @@
             </c:spPr>
             <c:trendlineType val="linear"/>
             <c:intercept val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.12220237621135818"/>
+                  <c:y val="3.3488653301507354E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -459,22 +526,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>59.432953210660159</c:v>
+                  <c:v>55.662294387130743</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37.141958787033104</c:v>
+                  <c:v>31.72094702232722</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>85.792076449802181</c:v>
+                  <c:v>86.14729997921394</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>95.29604459624403</c:v>
+                  <c:v>97.714209302126378</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>103.71857114494588</c:v>
+                  <c:v>108.19967702729883</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>71.630441176470583</c:v>
+                  <c:v>74.254900000000006</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
                   <c:v>193.32387030992871</c:v>
@@ -482,7 +549,8 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-2A61-4630-AC96-F93D546A883B}"/>
             </c:ext>
@@ -515,7 +583,39 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:intercept val="181"/>
+            <c:intercept val="180"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -575,34 +675,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>276.68956297538045</c:v>
+                  <c:v>353.37361003420403</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>353.15500672167474</c:v>
+                  <c:v>471.09787730991007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>425.01783521717743</c:v>
+                  <c:v>584.21952933482453</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>494.10122167083989</c:v>
+                  <c:v>694.56173931789886</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>292.64820588235295</c:v>
+                  <c:v>350.14690000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>359.78134705882354</c:v>
+                  <c:v>438.36330000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>425.96562941176472</c:v>
+                  <c:v>525.6721</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>497.09877058823531</c:v>
+                  <c:v>617.88850000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>616.41619411764702</c:v>
+                  <c:v>779.41370000000006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>742.73361764705885</c:v>
+                  <c:v>947.9389000000001</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
                   <c:v>477.17543754370661</c:v>
@@ -619,7 +719,8 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-2A61-4630-AC96-F93D546A883B}"/>
             </c:ext>
@@ -723,7 +824,8 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-2A61-4630-AC96-F93D546A883B}"/>
             </c:ext>
@@ -756,7 +858,39 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:intercept val="97"/>
+            <c:intercept val="92"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -825,40 +959,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>103.71857114494588</c:v>
+                  <c:v>108.19967702729883</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>111.40508939490596</c:v>
+                  <c:v>117.94913645372949</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>125.2861881331185</c:v>
+                  <c:v>135.9561175448832</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>137.82186766725997</c:v>
+                  <c:v>152.61767943196585</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>165.66571195488891</c:v>
+                  <c:v>190.77622960194773</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>190.53586708809638</c:v>
+                  <c:v>225.96109061750815</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>235.46249522498124</c:v>
+                  <c:v>291.51713051909894</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>143.33078235294118</c:v>
+                  <c:v>158.6217</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>188.37178235294118</c:v>
+                  <c:v>214.18369999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>226.46392352941177</c:v>
+                  <c:v>262.8381</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>260.55606470588236</c:v>
+                  <c:v>307.49250000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>292.64820588235295</c:v>
+                  <c:v>350.14690000000002</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
                   <c:v>193.32387030992871</c:v>
@@ -878,22 +1012,32 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-2A61-4630-AC96-F93D546A883B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:axId val="51969408"/>
-        <c:axId val="52254592"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="72051712"/>
+        <c:axId val="72066560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="51969408"/>
+        <c:axId val="72051712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5115"/>
           <c:min val="0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -966,6 +1110,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -973,8 +1118,29 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1001,10 +1167,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52254592"/>
+        <c:crossAx val="72066560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="500"/>
@@ -1013,10 +1179,11 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="52254592"/>
+        <c:axId val="72066560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1073,6 +1240,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1080,8 +1248,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1108,10 +1294,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51969408"/>
+        <c:crossAx val="72051712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1151,10 +1337,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1522842705050815"/>
+          <c:x val="0.15228427050508153"/>
           <c:y val="0.10118289096588759"/>
-          <c:w val="0.17186803031402045"/>
-          <c:h val="0.20004382255823588"/>
+          <c:w val="0.17186803031402048"/>
+          <c:h val="0.20004382255823591"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1183,19 +1369,20 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1214,7 +1401,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -1777,10 +1964,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="130" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -1792,13 +1979,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9305925" cy="6000750"/>
+    <xdr:ext cx="9303297" cy="6010603"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBD27D5D-8AC1-450A-9B6C-1A96C0201692}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBD27D5D-8AC1-450A-9B6C-1A96C0201692}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2076,19 +2263,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
@@ -2098,20 +2287,23 @@
     <col min="8" max="8" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C2" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="G2" s="7">
         <v>0.68</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2128,7 +2320,7 @@
       </c>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -2160,7 +2352,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>50</v>
       </c>
@@ -2173,12 +2365,12 @@
         <v>123.52941176470588</v>
       </c>
       <c r="D6">
-        <f>0.0207*C6+6.1465</f>
-        <v>8.703558823529411</v>
+        <f>0.0374*C6+0.3129</f>
+        <v>4.9329000000000001</v>
       </c>
       <c r="E6" s="1">
         <f>B6+D6</f>
-        <v>59.432953210660159</v>
+        <v>55.662294387130743</v>
       </c>
       <c r="H6" s="1">
         <v>205</v>
@@ -2191,15 +2383,15 @@
         <v>506.47058823529414</v>
       </c>
       <c r="K6">
-        <f>0.0207*J6+6.1465</f>
-        <v>16.63044117647059</v>
+        <f>0.0374*J6+0.3129</f>
+        <v>19.254900000000003</v>
       </c>
       <c r="L6" s="1">
         <f>I6+K6</f>
-        <v>71.630441176470583</v>
+        <v>74.254900000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10</v>
       </c>
@@ -2212,12 +2404,12 @@
         <v>24.705882352941178</v>
       </c>
       <c r="D7">
-        <f t="shared" ref="D7:D20" si="2">0.0207*C7+6.1465</f>
-        <v>6.6579117647058821</v>
+        <f t="shared" ref="D7:D20" si="2">0.0374*C7+0.3129</f>
+        <v>1.2369000000000001</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" ref="E7:E16" si="3">B7+D7</f>
-        <v>37.141958787033104</v>
+        <v>31.72094702232722</v>
       </c>
       <c r="H7" s="1">
         <v>512</v>
@@ -2230,15 +2422,15 @@
         <v>1264.9411764705883</v>
       </c>
       <c r="K7">
-        <f t="shared" ref="K7:K19" si="5">0.0207*J7+6.1465</f>
-        <v>32.330782352941178</v>
+        <f t="shared" ref="K7:K19" si="5">0.0374*J7+0.3129</f>
+        <v>47.621700000000004</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" ref="L7:L19" si="6">I7+K7</f>
-        <v>143.33078235294118</v>
+        <v>158.6217</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>150</v>
       </c>
@@ -2252,11 +2444,11 @@
       </c>
       <c r="D8">
         <f t="shared" si="2"/>
-        <v>13.817676470588236</v>
+        <v>14.172900000000004</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="3"/>
-        <v>85.792076449802181</v>
+        <v>86.14729997921394</v>
       </c>
       <c r="H8" s="1">
         <v>767</v>
@@ -2270,14 +2462,14 @@
       </c>
       <c r="K8">
         <f t="shared" si="5"/>
-        <v>45.371782352941182</v>
+        <v>71.183700000000002</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" si="6"/>
-        <v>188.37178235294118</v>
+        <v>214.18369999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>200</v>
       </c>
@@ -2291,11 +2483,11 @@
       </c>
       <c r="D9">
         <f t="shared" si="2"/>
-        <v>16.374735294117649</v>
+        <v>18.792899999999999</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="3"/>
-        <v>95.29604459624403</v>
+        <v>97.714209302126378</v>
       </c>
       <c r="H9" s="1">
         <v>1023</v>
@@ -2309,14 +2501,14 @@
       </c>
       <c r="K9">
         <f t="shared" si="5"/>
-        <v>58.463923529411758</v>
+        <v>94.838100000000011</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" si="6"/>
-        <v>226.46392352941177</v>
+        <v>262.8381</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>250</v>
       </c>
@@ -2330,11 +2522,11 @@
       </c>
       <c r="D10">
         <f t="shared" si="2"/>
-        <v>18.931794117647058</v>
+        <v>23.4129</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="3"/>
-        <v>103.71857114494588</v>
+        <v>108.19967702729883</v>
       </c>
       <c r="H10" s="1">
         <v>1279</v>
@@ -2348,14 +2540,14 @@
       </c>
       <c r="K10">
         <f t="shared" si="5"/>
-        <v>71.556064705882363</v>
+        <v>118.49250000000001</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" si="6"/>
-        <v>260.55606470588236</v>
+        <v>307.49250000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>300</v>
       </c>
@@ -2369,11 +2561,11 @@
       </c>
       <c r="D11">
         <f t="shared" si="2"/>
-        <v>21.488852941176471</v>
+        <v>28.032900000000005</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="3"/>
-        <v>111.40508939490596</v>
+        <v>117.94913645372949</v>
       </c>
       <c r="H11" s="1">
         <v>1535</v>
@@ -2387,14 +2579,14 @@
       </c>
       <c r="K11">
         <f t="shared" si="5"/>
-        <v>84.64820588235294</v>
+        <v>142.14690000000002</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" si="6"/>
-        <v>292.64820588235295</v>
+        <v>350.14690000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>400</v>
       </c>
@@ -2408,11 +2600,11 @@
       </c>
       <c r="D12">
         <f t="shared" si="2"/>
-        <v>26.602970588235294</v>
+        <v>37.2729</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="3"/>
-        <v>125.2861881331185</v>
+        <v>135.9561175448832</v>
       </c>
       <c r="H12" s="1">
         <v>2046</v>
@@ -2426,14 +2618,14 @@
       </c>
       <c r="K12">
         <f t="shared" si="5"/>
-        <v>110.78134705882353</v>
+        <v>189.36330000000004</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" si="6"/>
-        <v>359.78134705882354</v>
+        <v>438.36330000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>500</v>
       </c>
@@ -2447,11 +2639,11 @@
       </c>
       <c r="D13">
         <f t="shared" si="2"/>
-        <v>31.717088235294117</v>
+        <v>46.512900000000002</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="3"/>
-        <v>137.82186766725997</v>
+        <v>152.61767943196585</v>
       </c>
       <c r="H13" s="1">
         <v>2558</v>
@@ -2465,14 +2657,14 @@
       </c>
       <c r="K13">
         <f t="shared" si="5"/>
-        <v>136.96562941176472</v>
+        <v>236.67210000000003</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" si="6"/>
-        <v>425.96562941176472</v>
+        <v>525.6721</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>750</v>
       </c>
@@ -2486,11 +2678,11 @@
       </c>
       <c r="D14">
         <f t="shared" si="2"/>
-        <v>44.502382352941183</v>
+        <v>69.61290000000001</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="3"/>
-        <v>165.66571195488891</v>
+        <v>190.77622960194773</v>
       </c>
       <c r="H14" s="1">
         <v>3069</v>
@@ -2504,14 +2696,14 @@
       </c>
       <c r="K14">
         <f t="shared" si="5"/>
-        <v>163.09877058823531</v>
+        <v>283.88850000000008</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" si="6"/>
-        <v>497.09877058823531</v>
+        <v>617.88850000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1000</v>
       </c>
@@ -2525,11 +2717,11 @@
       </c>
       <c r="D15">
         <f t="shared" si="2"/>
-        <v>57.287676470588238</v>
+        <v>92.712900000000005</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="3"/>
-        <v>190.53586708809638</v>
+        <v>225.96109061750815</v>
       </c>
       <c r="H15" s="1">
         <v>4092</v>
@@ -2543,14 +2735,14 @@
       </c>
       <c r="K15">
         <f t="shared" si="5"/>
-        <v>215.41619411764705</v>
+        <v>378.41370000000006</v>
       </c>
       <c r="L15" s="1">
         <f t="shared" si="6"/>
-        <v>616.41619411764702</v>
+        <v>779.41370000000006</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1500</v>
       </c>
@@ -2564,11 +2756,11 @@
       </c>
       <c r="D16">
         <f t="shared" si="2"/>
-        <v>82.858264705882362</v>
+        <v>138.91290000000004</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="3"/>
-        <v>235.46249522498124</v>
+        <v>291.51713051909894</v>
       </c>
       <c r="H16" s="1">
         <v>5115</v>
@@ -2582,14 +2774,14 @@
       </c>
       <c r="K16">
         <f t="shared" si="5"/>
-        <v>267.73361764705885</v>
+        <v>472.9389000000001</v>
       </c>
       <c r="L16" s="1">
         <f t="shared" si="6"/>
-        <v>742.73361764705885</v>
+        <v>947.9389000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2000</v>
       </c>
@@ -2603,11 +2795,11 @@
       </c>
       <c r="D17">
         <f t="shared" si="2"/>
-        <v>108.42885294117647</v>
+        <v>185.11290000000002</v>
       </c>
       <c r="E17" s="1">
         <f>B17+D17</f>
-        <v>276.68956297538045</v>
+        <v>353.37361003420403</v>
       </c>
       <c r="H17" s="1">
         <v>6138</v>
@@ -2621,14 +2813,14 @@
       </c>
       <c r="K17">
         <f t="shared" si="5"/>
-        <v>320.05104117647062</v>
+        <v>567.46410000000014</v>
       </c>
       <c r="L17" s="1">
         <f t="shared" si="6"/>
-        <v>853.05104117647056</v>
+        <v>1100.4641000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3000</v>
       </c>
@@ -2642,11 +2834,11 @@
       </c>
       <c r="D18">
         <f t="shared" si="2"/>
-        <v>159.57002941176472</v>
+        <v>277.51290000000006</v>
       </c>
       <c r="E18" s="1">
         <f>B18+D18</f>
-        <v>353.15500672167474</v>
+        <v>471.09787730991007</v>
       </c>
       <c r="H18" s="1">
         <v>8184</v>
@@ -2660,14 +2852,14 @@
       </c>
       <c r="K18">
         <f t="shared" si="5"/>
-        <v>424.6858882352941</v>
+        <v>756.51450000000011</v>
       </c>
       <c r="L18" s="1">
         <f t="shared" si="6"/>
-        <v>1092.685888235294</v>
+        <v>1424.5145000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>4000</v>
       </c>
@@ -2681,11 +2873,11 @@
       </c>
       <c r="D19">
         <f t="shared" si="2"/>
-        <v>210.71120588235294</v>
+        <v>369.91290000000004</v>
       </c>
       <c r="E19" s="1">
         <f>B19+D19</f>
-        <v>425.01783521717743</v>
+        <v>584.21952933482453</v>
       </c>
       <c r="H19" s="1">
         <v>10230</v>
@@ -2699,14 +2891,14 @@
       </c>
       <c r="K19">
         <f t="shared" si="5"/>
-        <v>529.32073529411764</v>
+        <v>945.56490000000019</v>
       </c>
       <c r="L19" s="1">
         <f t="shared" si="6"/>
-        <v>1324.3207352941176</v>
+        <v>1740.5649000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>5000</v>
       </c>
@@ -2720,19 +2912,19 @@
       </c>
       <c r="D20">
         <f t="shared" si="2"/>
-        <v>261.85238235294116</v>
+        <v>462.31290000000007</v>
       </c>
       <c r="E20" s="1">
         <f>B20+D20</f>
-        <v>494.10122167083989</v>
+        <v>694.56173931789886</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -2740,7 +2932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>250</v>
       </c>
@@ -2749,7 +2941,7 @@
         <v>193.32387030992871</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>500</v>
       </c>
@@ -2758,7 +2950,7 @@
         <v>261.26607094212056</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>750</v>
       </c>
@@ -2767,7 +2959,7 @@
         <v>311.59800340800399</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1000</v>
       </c>
@@ -2776,7 +2968,7 @@
         <v>353.08604010514421</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1500</v>
       </c>
@@ -2785,7 +2977,7 @@
         <v>421.10674658698713</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2000</v>
       </c>
@@ -2794,7 +2986,7 @@
         <v>477.17543754370661</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3000</v>
       </c>
@@ -2803,7 +2995,7 @@
         <v>569.10150283883968</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4000</v>
       </c>
@@ -2812,7 +3004,7 @@
         <v>644.8751078553629</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>5000</v>
       </c>

--- a/Approximationen/AC Kosten.xlsx
+++ b/Approximationen/AC Kosten.xlsx
@@ -5,13 +5,13 @@
   <workbookPr filterPrivacy="1"/>
   <xr:revisionPtr revIDLastSave="7" documentId="11_EB6B1133B04C936C96366B20EDBDEFCCDC1637D8" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{3CA93CB4-C292-4BFC-A26C-E7B3505EA5E6}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diagramm" sheetId="2" r:id="rId1"/>
     <sheet name="Tabelle1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" calcCompleted="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>

--- a/Approximationen/AC Kosten.xlsx
+++ b/Approximationen/AC Kosten.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_EB6B1133B04C936C96366B20EDBDEFCCDC1637D8" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{3CA93CB4-C292-4BFC-A26C-E7B3505EA5E6}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="11_EB6B1133B04C936C96366B20EDBDEFCCDC1637D8" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{CCACCA78-7678-4281-A29F-AF883D608E40}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diagramm" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>kW Kälte</t>
   </si>
@@ -50,13 +50,10 @@
     <t>kEUR gesamt</t>
   </si>
   <si>
-    <t>Preisatlas Schlott mit Rückkühler</t>
-  </si>
-  <si>
     <t>Auslegungs-Wärmeverhältnis:</t>
   </si>
   <si>
-    <t xml:space="preserve">y = 0,0374x + 0,3129 </t>
+    <t>Stützstellen</t>
   </si>
 </sst>
 </file>
@@ -248,49 +245,49 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>55.662294387130743</c:v>
+                  <c:v>58.746453210660157</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31.72094702232722</c:v>
+                  <c:v>32.087458787033107</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>86.14729997921394</c:v>
+                  <c:v>96.025576449802173</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>97.714209302126378</c:v>
+                  <c:v>110.98954459624403</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>108.19967702729883</c:v>
+                  <c:v>124.87207114494589</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>117.94913645372949</c:v>
+                  <c:v>138.01858939490597</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>135.9561175448832</c:v>
+                  <c:v>162.81968813311852</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>152.61767943196585</c:v>
+                  <c:v>186.27536766725996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>190.77622960194773</c:v>
+                  <c:v>241.41921195488891</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>225.96109061750815</c:v>
+                  <c:v>293.58936708809637</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>291.51713051909894</c:v>
+                  <c:v>393.11599522498125</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>353.37361003420403</c:v>
+                  <c:v>488.94306297538049</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>471.09787730991007</c:v>
+                  <c:v>674.60850672167476</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>584.21952933482453</c:v>
+                  <c:v>855.67133521717744</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>694.56173931789886</c:v>
+                  <c:v>1033.9547216708399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -379,37 +376,37 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>74.254900000000006</c:v>
+                  <c:v>87.86994117647059</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>158.6217</c:v>
+                  <c:v>193.09468235294116</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>214.18369999999999</c:v>
+                  <c:v>265.98168235294116</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>262.8381</c:v>
+                  <c:v>332.0290235294118</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>307.49250000000001</c:v>
+                  <c:v>394.07636470588238</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>350.14690000000002</c:v>
+                  <c:v>454.12370588235297</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>438.36330000000004</c:v>
+                  <c:v>577.0580470588236</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>525.6721</c:v>
+                  <c:v>699.15272941176477</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>617.88850000000002</c:v>
+                  <c:v>826.08707058823529</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>779.41370000000006</c:v>
+                  <c:v>1057.1160941176472</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>947.9389000000001</c:v>
+                  <c:v>1295.1451176470589</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -440,7 +437,7 @@
           <c:trendline>
             <c:name>Regression</c:name>
             <c:spPr>
-              <a:ln w="19050" cap="rnd">
+              <a:ln w="25400" cap="rnd">
                 <a:solidFill>
                   <a:srgbClr val="C00000"/>
                 </a:solidFill>
@@ -449,14 +446,15 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
+            <c:backward val="50"/>
             <c:intercept val="0"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.12220237621135818"/>
-                  <c:y val="3.3488653301507354E-2"/>
+                  <c:x val="4.6052383364736181E-2"/>
+                  <c:y val="6.3427080444341435E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -513,9 +511,6 @@
                 <c:pt idx="5" formatCode="0.00">
                   <c:v>205</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>250</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -526,25 +521,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>55.662294387130743</c:v>
+                  <c:v>58.746453210660157</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31.72094702232722</c:v>
+                  <c:v>32.087458787033107</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>86.14729997921394</c:v>
+                  <c:v>96.025576449802173</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>97.714209302126378</c:v>
+                  <c:v>110.98954459624403</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>108.19967702729883</c:v>
+                  <c:v>124.87207114494589</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>74.254900000000006</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>193.32387030992871</c:v>
+                  <c:v>87.86994117647059</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -572,51 +564,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:srgbClr val="C00000"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:intercept val="180"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>(Tabelle1!$A$17:$A$20,Tabelle1!$H$11:$H$16,Tabelle1!$A$30:$A$33)</c:f>
@@ -652,18 +599,6 @@
                 </c:pt>
                 <c:pt idx="9" formatCode="0.00">
                   <c:v>5115</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -675,46 +610,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>353.37361003420403</c:v>
+                  <c:v>488.94306297538049</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>471.09787730991007</c:v>
+                  <c:v>674.60850672167476</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>584.21952933482453</c:v>
+                  <c:v>855.67133521717744</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>694.56173931789886</c:v>
+                  <c:v>1033.9547216708399</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>350.14690000000002</c:v>
+                  <c:v>454.12370588235297</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>438.36330000000004</c:v>
+                  <c:v>577.0580470588236</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>525.6721</c:v>
+                  <c:v>699.15272941176477</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>617.88850000000002</c:v>
+                  <c:v>826.08707058823529</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>779.41370000000006</c:v>
+                  <c:v>1057.1160941176472</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>947.9389000000001</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>477.17543754370661</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>569.10150283883968</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>644.8751078553629</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="General">
-                  <c:v>710.53097302107585</c:v>
+                  <c:v>1295.1451176470589</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -758,33 +681,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -794,33 +690,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>193.32387030992871</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>261.26607094212056</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>311.59800340800399</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>353.08604010514421</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>421.10674658698713</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>477.17543754370661</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>569.10150283883968</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>644.8751078553629</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>710.53097302107585</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -835,7 +704,7 @@
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
-            <c:v>250-1535</c:v>
+            <c:v>250-3000</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -849,7 +718,7 @@
           </c:marker>
           <c:trendline>
             <c:spPr>
-              <a:ln w="19050" cap="rnd">
+              <a:ln w="25400" cap="rnd">
                 <a:solidFill>
                   <a:srgbClr val="C00000"/>
                 </a:solidFill>
@@ -858,10 +727,16 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:intercept val="92"/>
+            <c:intercept val="75"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.2316287440893266"/>
+                  <c:y val="8.1446736708446724E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -894,7 +769,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>(Tabelle1!$A$10:$A$16,Tabelle1!$H$7:$H$11,Tabelle1!$A$25:$A$29)</c:f>
+              <c:f>(Tabelle1!$A$10:$A$18,Tabelle1!$H$7:$H$14)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -919,95 +794,95 @@
                 <c:pt idx="6">
                   <c:v>1500</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="0.00">
+                <c:pt idx="7">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
                   <c:v>512</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="0.00">
+                <c:pt idx="10" formatCode="0.00">
                   <c:v>767</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="0.00">
+                <c:pt idx="11" formatCode="0.00">
                   <c:v>1023</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="0.00">
+                <c:pt idx="12" formatCode="0.00">
                   <c:v>1279</c:v>
                 </c:pt>
-                <c:pt idx="11" formatCode="0.00">
+                <c:pt idx="13" formatCode="0.00">
                   <c:v>1535</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1500</c:v>
+                <c:pt idx="14" formatCode="0.00">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00">
+                  <c:v>2558</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00">
+                  <c:v>3069</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(Tabelle1!$E$10:$E$16,Tabelle1!$L$7:$L$11,Tabelle1!$B$25:$B$29)</c:f>
+              <c:f>(Tabelle1!$E$10:$E$18,Tabelle1!$L$7:$L$14)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>108.19967702729883</c:v>
+                  <c:v>124.87207114494589</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>117.94913645372949</c:v>
+                  <c:v>138.01858939490597</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>135.9561175448832</c:v>
+                  <c:v>162.81968813311852</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>152.61767943196585</c:v>
+                  <c:v>186.27536766725996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>190.77622960194773</c:v>
+                  <c:v>241.41921195488891</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>225.96109061750815</c:v>
+                  <c:v>293.58936708809637</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>291.51713051909894</c:v>
+                  <c:v>393.11599522498125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>158.6217</c:v>
+                  <c:v>488.94306297538049</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>214.18369999999999</c:v>
+                  <c:v>674.60850672167476</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>262.8381</c:v>
+                  <c:v>193.09468235294116</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>307.49250000000001</c:v>
+                  <c:v>265.98168235294116</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>350.14690000000002</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>193.32387030992871</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="General">
-                  <c:v>261.26607094212056</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="General">
-                  <c:v>311.59800340800399</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="General">
-                  <c:v>353.08604010514421</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="General">
-                  <c:v>421.10674658698713</c:v>
+                  <c:v>332.0290235294118</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>394.07636470588238</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>454.12370588235297</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>577.0580470588236</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>699.15272941176477</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>826.08707058823529</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1034,7 +909,7 @@
         <c:axId val="72051712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="5115"/>
+          <c:max val="3000"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1182,6 +1057,8 @@
         <c:axId val="72066560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1322,15 +1199,15 @@
         <c:delete val="1"/>
       </c:legendEntry>
       <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
         <c:idx val="5"/>
         <c:delete val="1"/>
       </c:legendEntry>
       <c:legendEntry>
         <c:idx val="7"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="8"/>
         <c:delete val="1"/>
       </c:legendEntry>
       <c:layout>
@@ -1340,7 +1217,7 @@
           <c:x val="0.15228427050508153"/>
           <c:y val="0.10118289096588759"/>
           <c:w val="0.17186803031402048"/>
-          <c:h val="0.20004382255823591"/>
+          <c:h val="0.145107570737911"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1967,7 +1844,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="116" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -2271,10 +2148,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2289,12 +2166,12 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C2" s="8" t="s">
-        <v>9</v>
+      <c r="C2" s="8">
+        <v>6.4899999999999999E-2</v>
       </c>
       <c r="G2" s="7">
         <v>0.68</v>
@@ -2365,12 +2242,12 @@
         <v>123.52941176470588</v>
       </c>
       <c r="D6">
-        <f>0.0374*C6+0.3129</f>
-        <v>4.9329000000000001</v>
+        <f>$C$2*C6</f>
+        <v>8.0170588235294122</v>
       </c>
       <c r="E6" s="1">
         <f>B6+D6</f>
-        <v>55.662294387130743</v>
+        <v>58.746453210660157</v>
       </c>
       <c r="H6" s="1">
         <v>205</v>
@@ -2383,12 +2260,12 @@
         <v>506.47058823529414</v>
       </c>
       <c r="K6">
-        <f>0.0374*J6+0.3129</f>
-        <v>19.254900000000003</v>
+        <f>$C$2*J6</f>
+        <v>32.86994117647059</v>
       </c>
       <c r="L6" s="1">
         <f>I6+K6</f>
-        <v>74.254900000000006</v>
+        <v>87.86994117647059</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -2404,12 +2281,12 @@
         <v>24.705882352941178</v>
       </c>
       <c r="D7">
-        <f t="shared" ref="D7:D20" si="2">0.0374*C7+0.3129</f>
-        <v>1.2369000000000001</v>
+        <f t="shared" ref="D7:D20" si="2">$C$2*C7</f>
+        <v>1.6034117647058823</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" ref="E7:E16" si="3">B7+D7</f>
-        <v>31.72094702232722</v>
+        <v>32.087458787033107</v>
       </c>
       <c r="H7" s="1">
         <v>512</v>
@@ -2422,12 +2299,12 @@
         <v>1264.9411764705883</v>
       </c>
       <c r="K7">
-        <f t="shared" ref="K7:K19" si="5">0.0374*J7+0.3129</f>
-        <v>47.621700000000004</v>
+        <f t="shared" ref="K7:K19" si="5">$C$2*J7</f>
+        <v>82.094682352941177</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" ref="L7:L19" si="6">I7+K7</f>
-        <v>158.6217</v>
+        <v>193.09468235294116</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -2444,11 +2321,11 @@
       </c>
       <c r="D8">
         <f t="shared" si="2"/>
-        <v>14.172900000000004</v>
+        <v>24.051176470588238</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="3"/>
-        <v>86.14729997921394</v>
+        <v>96.025576449802173</v>
       </c>
       <c r="H8" s="1">
         <v>767</v>
@@ -2462,11 +2339,11 @@
       </c>
       <c r="K8">
         <f t="shared" si="5"/>
-        <v>71.183700000000002</v>
+        <v>122.98168235294118</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" si="6"/>
-        <v>214.18369999999999</v>
+        <v>265.98168235294116</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -2483,11 +2360,11 @@
       </c>
       <c r="D9">
         <f t="shared" si="2"/>
-        <v>18.792899999999999</v>
+        <v>32.068235294117649</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="3"/>
-        <v>97.714209302126378</v>
+        <v>110.98954459624403</v>
       </c>
       <c r="H9" s="1">
         <v>1023</v>
@@ -2501,11 +2378,11 @@
       </c>
       <c r="K9">
         <f t="shared" si="5"/>
-        <v>94.838100000000011</v>
+        <v>164.02902352941177</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" si="6"/>
-        <v>262.8381</v>
+        <v>332.0290235294118</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -2522,11 +2399,11 @@
       </c>
       <c r="D10">
         <f t="shared" si="2"/>
-        <v>23.4129</v>
+        <v>40.085294117647059</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="3"/>
-        <v>108.19967702729883</v>
+        <v>124.87207114494589</v>
       </c>
       <c r="H10" s="1">
         <v>1279</v>
@@ -2540,11 +2417,11 @@
       </c>
       <c r="K10">
         <f t="shared" si="5"/>
-        <v>118.49250000000001</v>
+        <v>205.07636470588236</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" si="6"/>
-        <v>307.49250000000001</v>
+        <v>394.07636470588238</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -2561,11 +2438,11 @@
       </c>
       <c r="D11">
         <f t="shared" si="2"/>
-        <v>28.032900000000005</v>
+        <v>48.102352941176477</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="3"/>
-        <v>117.94913645372949</v>
+        <v>138.01858939490597</v>
       </c>
       <c r="H11" s="1">
         <v>1535</v>
@@ -2579,11 +2456,11 @@
       </c>
       <c r="K11">
         <f t="shared" si="5"/>
-        <v>142.14690000000002</v>
+        <v>246.12370588235294</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" si="6"/>
-        <v>350.14690000000002</v>
+        <v>454.12370588235297</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -2600,11 +2477,11 @@
       </c>
       <c r="D12">
         <f t="shared" si="2"/>
-        <v>37.2729</v>
+        <v>64.136470588235298</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="3"/>
-        <v>135.9561175448832</v>
+        <v>162.81968813311852</v>
       </c>
       <c r="H12" s="1">
         <v>2046</v>
@@ -2618,11 +2495,11 @@
       </c>
       <c r="K12">
         <f t="shared" si="5"/>
-        <v>189.36330000000004</v>
+        <v>328.05804705882355</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" si="6"/>
-        <v>438.36330000000004</v>
+        <v>577.0580470588236</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -2639,11 +2516,11 @@
       </c>
       <c r="D13">
         <f t="shared" si="2"/>
-        <v>46.512900000000002</v>
+        <v>80.170588235294119</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="3"/>
-        <v>152.61767943196585</v>
+        <v>186.27536766725996</v>
       </c>
       <c r="H13" s="1">
         <v>2558</v>
@@ -2657,11 +2534,11 @@
       </c>
       <c r="K13">
         <f t="shared" si="5"/>
-        <v>236.67210000000003</v>
+        <v>410.15272941176471</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" si="6"/>
-        <v>525.6721</v>
+        <v>699.15272941176477</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -2678,11 +2555,11 @@
       </c>
       <c r="D14">
         <f t="shared" si="2"/>
-        <v>69.61290000000001</v>
+        <v>120.25588235294119</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="3"/>
-        <v>190.77622960194773</v>
+        <v>241.41921195488891</v>
       </c>
       <c r="H14" s="1">
         <v>3069</v>
@@ -2696,11 +2573,11 @@
       </c>
       <c r="K14">
         <f t="shared" si="5"/>
-        <v>283.88850000000008</v>
+        <v>492.08707058823535</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" si="6"/>
-        <v>617.88850000000002</v>
+        <v>826.08707058823529</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -2717,11 +2594,11 @@
       </c>
       <c r="D15">
         <f t="shared" si="2"/>
-        <v>92.712900000000005</v>
+        <v>160.34117647058824</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="3"/>
-        <v>225.96109061750815</v>
+        <v>293.58936708809637</v>
       </c>
       <c r="H15" s="1">
         <v>4092</v>
@@ -2735,11 +2612,11 @@
       </c>
       <c r="K15">
         <f t="shared" si="5"/>
-        <v>378.41370000000006</v>
+        <v>656.11609411764709</v>
       </c>
       <c r="L15" s="1">
         <f t="shared" si="6"/>
-        <v>779.41370000000006</v>
+        <v>1057.1160941176472</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -2756,11 +2633,11 @@
       </c>
       <c r="D16">
         <f t="shared" si="2"/>
-        <v>138.91290000000004</v>
+        <v>240.51176470588237</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="3"/>
-        <v>291.51713051909894</v>
+        <v>393.11599522498125</v>
       </c>
       <c r="H16" s="1">
         <v>5115</v>
@@ -2774,11 +2651,11 @@
       </c>
       <c r="K16">
         <f t="shared" si="5"/>
-        <v>472.9389000000001</v>
+        <v>820.1451176470589</v>
       </c>
       <c r="L16" s="1">
         <f t="shared" si="6"/>
-        <v>947.9389000000001</v>
+        <v>1295.1451176470589</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -2795,11 +2672,11 @@
       </c>
       <c r="D17">
         <f t="shared" si="2"/>
-        <v>185.11290000000002</v>
+        <v>320.68235294117648</v>
       </c>
       <c r="E17" s="1">
         <f>B17+D17</f>
-        <v>353.37361003420403</v>
+        <v>488.94306297538049</v>
       </c>
       <c r="H17" s="1">
         <v>6138</v>
@@ -2813,11 +2690,11 @@
       </c>
       <c r="K17">
         <f t="shared" si="5"/>
-        <v>567.46410000000014</v>
+        <v>984.1741411764707</v>
       </c>
       <c r="L17" s="1">
         <f t="shared" si="6"/>
-        <v>1100.4641000000001</v>
+        <v>1517.1741411764706</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -2834,11 +2711,11 @@
       </c>
       <c r="D18">
         <f t="shared" si="2"/>
-        <v>277.51290000000006</v>
+        <v>481.02352941176474</v>
       </c>
       <c r="E18" s="1">
         <f>B18+D18</f>
-        <v>471.09787730991007</v>
+        <v>674.60850672167476</v>
       </c>
       <c r="H18" s="1">
         <v>8184</v>
@@ -2852,11 +2729,11 @@
       </c>
       <c r="K18">
         <f t="shared" si="5"/>
-        <v>756.51450000000011</v>
+        <v>1312.2321882352942</v>
       </c>
       <c r="L18" s="1">
         <f t="shared" si="6"/>
-        <v>1424.5145000000002</v>
+        <v>1980.2321882352942</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -2873,11 +2750,11 @@
       </c>
       <c r="D19">
         <f t="shared" si="2"/>
-        <v>369.91290000000004</v>
+        <v>641.36470588235295</v>
       </c>
       <c r="E19" s="1">
         <f>B19+D19</f>
-        <v>584.21952933482453</v>
+        <v>855.67133521717744</v>
       </c>
       <c r="H19" s="1">
         <v>10230</v>
@@ -2891,11 +2768,11 @@
       </c>
       <c r="K19">
         <f t="shared" si="5"/>
-        <v>945.56490000000019</v>
+        <v>1640.2902352941178</v>
       </c>
       <c r="L19" s="1">
         <f t="shared" si="6"/>
-        <v>1740.5649000000003</v>
+        <v>2435.2902352941178</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -2912,105 +2789,50 @@
       </c>
       <c r="D20">
         <f t="shared" si="2"/>
-        <v>462.31290000000007</v>
+        <v>801.70588235294122</v>
       </c>
       <c r="E20" s="1">
         <f>B20+D20</f>
-        <v>694.56173931789886</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>7</v>
+        <v>1033.9547216708399</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1</v>
+      <c r="C24" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>250</v>
-      </c>
-      <c r="B25">
-        <f>17554.18*A25^(-0.5655)*A25/1000</f>
-        <v>193.32387030992871</v>
+      <c r="C25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>500</v>
-      </c>
-      <c r="B26">
-        <f t="shared" ref="B26:B33" si="7">17554.18*A26^(-0.5655)*A26/1000</f>
-        <v>261.26607094212056</v>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>750</v>
-      </c>
-      <c r="B27">
-        <f t="shared" si="7"/>
-        <v>311.59800340800399</v>
+      <c r="C27">
+        <v>250</v>
+      </c>
+      <c r="D27">
+        <f>0.5252*C27</f>
+        <v>131.30000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>1000</v>
-      </c>
-      <c r="B28">
-        <f t="shared" si="7"/>
-        <v>353.08604010514421</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>1500</v>
-      </c>
-      <c r="B29">
-        <f t="shared" si="7"/>
-        <v>421.10674658698713</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>2000</v>
-      </c>
-      <c r="B30">
-        <f t="shared" si="7"/>
-        <v>477.17543754370661</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="C28">
         <v>3000</v>
       </c>
-      <c r="B31">
-        <f t="shared" si="7"/>
-        <v>569.10150283883968</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>4000</v>
-      </c>
-      <c r="B32">
-        <f t="shared" si="7"/>
-        <v>644.8751078553629</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>5000</v>
-      </c>
-      <c r="B33">
-        <f t="shared" si="7"/>
-        <v>710.53097302107585</v>
+      <c r="D28">
+        <f>75+0.2294*C28</f>
+        <v>763.19999999999993</v>
       </c>
     </row>
   </sheetData>

--- a/Approximationen/AC Kosten.xlsx
+++ b/Approximationen/AC Kosten.xlsx
@@ -5,7 +5,7 @@
   <workbookPr filterPrivacy="1"/>
   <xr:revisionPtr revIDLastSave="35" documentId="11_EB6B1133B04C936C96366B20EDBDEFCCDC1637D8" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{CCACCA78-7678-4281-A29F-AF883D608E40}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diagramm" sheetId="2" r:id="rId1"/>
@@ -105,14 +105,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1844,7 +1841,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="116" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -2150,7 +2147,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
@@ -2170,10 +2167,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C2" s="8">
+      <c r="C2" s="5">
         <v>6.4899999999999999E-2</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="4">
         <v>0.68</v>
       </c>
     </row>
@@ -2204,13 +2201,13 @@
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" t="s">
         <v>6</v>
       </c>
       <c r="H5" t="s">
@@ -2219,13 +2216,13 @@
       <c r="I5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2623,7 +2620,7 @@
       <c r="A16">
         <v>1500</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>152.60423051909888</v>
       </c>

--- a/Approximationen/AC Kosten.xlsx
+++ b/Approximationen/AC Kosten.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="35" documentId="11_EB6B1133B04C936C96366B20EDBDEFCCDC1637D8" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{CCACCA78-7678-4281-A29F-AF883D608E40}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="6_{194188B1-8D7D-4107-B93C-52A575697D62}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{8036438F-8F77-4524-AF98-D161FFC41846}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
   <si>
     <t>kW Kälte</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>Stützstellen</t>
+  </si>
+  <si>
+    <t>Stützstellen ohne Rückkühlung</t>
   </si>
 </sst>
 </file>
@@ -149,7 +152,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11269090947005131"/>
+          <c:y val="3.8006336469069736E-2"/>
+          <c:w val="0.8487448052018548"/>
+          <c:h val="0.81646184251397069"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -168,7 +181,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="7"/>
+            <c:size val="9"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -311,7 +324,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="diamond"/>
-            <c:size val="7"/>
+            <c:size val="9"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -324,6 +337,18 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-2930-4244-9B96-7129313A8E0F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:xVal>
             <c:numRef>
               <c:f>Tabelle1!$H$6:$H$16</c:f>
@@ -434,7 +459,7 @@
           <c:trendline>
             <c:name>Regression</c:name>
             <c:spPr>
-              <a:ln w="25400" cap="rnd">
+              <a:ln w="38100" cap="rnd">
                 <a:solidFill>
                   <a:srgbClr val="C00000"/>
                 </a:solidFill>
@@ -446,43 +471,7 @@
             <c:backward val="50"/>
             <c:intercept val="0"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="4.6052383364736181E-2"/>
-                  <c:y val="6.3427080444341435E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -561,6 +550,18 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-2930-4244-9B96-7129313A8E0F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:xVal>
             <c:numRef>
               <c:f>(Tabelle1!$A$17:$A$20,Tabelle1!$H$11:$H$16,Tabelle1!$A$30:$A$33)</c:f>
@@ -713,9 +714,21 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-2930-4244-9B96-7129313A8E0F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:trendline>
             <c:spPr>
-              <a:ln w="25400" cap="rnd">
+              <a:ln w="38100" cap="rnd">
                 <a:solidFill>
                   <a:srgbClr val="C00000"/>
                 </a:solidFill>
@@ -726,43 +739,7 @@
             <c:trendlineType val="linear"/>
             <c:intercept val="75"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.2316287440893266"/>
-                  <c:y val="8.1446736708446724E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -888,6 +865,118 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-2A61-4630-AC96-F93D546A883B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>ohneRK_1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$F$26:$F$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$G$26:$G$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>115.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-2930-4244-9B96-7129313A8E0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>ohneRK_2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$F$27:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$G$27:$G$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>115.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>568.20000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-2930-4244-9B96-7129313A8E0F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -946,7 +1035,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -959,7 +1048,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="1500" b="1">
+                  <a:rPr lang="en-GB" sz="1800" b="1">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -967,14 +1056,14 @@
                   <a:t>Nennkälteleistung</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="1500" b="1" baseline="0">
+                  <a:rPr lang="en-GB" sz="1800" b="1" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                   </a:rPr>
                   <a:t> [MW]</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-GB" sz="1500" b="1">
+                <a:endParaRPr lang="en-GB" sz="1800" b="1">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
@@ -995,7 +1084,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1013,7 +1102,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
-        <c:minorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1030,7 +1119,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -1054,7 +1143,7 @@
         <c:axId val="72066560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1000"/>
+          <c:max val="800"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1094,7 +1183,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -1104,7 +1193,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1500" b="1">
+                  <a:rPr lang="en-US" sz="1800" b="1">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -1127,7 +1216,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
@@ -1142,7 +1231,7 @@
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
-        <c:minorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1159,7 +1248,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -1177,7 +1266,7 @@
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln w="19050">
+        <a:ln w="25400">
           <a:solidFill>
             <a:schemeClr val="tx1"/>
           </a:solidFill>
@@ -1204,17 +1293,25 @@
         <c:delete val="1"/>
       </c:legendEntry>
       <c:legendEntry>
+        <c:idx val="6"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
         <c:idx val="7"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="9"/>
         <c:delete val="1"/>
       </c:legendEntry>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15228427050508153"/>
-          <c:y val="0.10118289096588759"/>
-          <c:w val="0.17186803031402048"/>
-          <c:h val="0.145107570737911"/>
+          <c:x val="0.15091918488682024"/>
+          <c:y val="6.7375935492661881E-2"/>
+          <c:w val="0.17869353198118904"/>
+          <c:h val="0.14933343626255136"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1234,7 +1331,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1278,6 +1375,7 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -1841,7 +1939,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -1853,7 +1951,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9303297" cy="6010603"/>
+    <xdr:ext cx="9301370" cy="6013174"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1">
@@ -1880,6 +1978,157 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.60681</cdr:x>
+      <cdr:y>0.26377</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.7051</cdr:x>
+      <cdr:y>0.32388</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="Textfeld 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D92D54B9-903E-4165-B9C7-044385059D26}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="19920271">
+          <a:off x="5645312" y="1585406"/>
+          <a:ext cx="914400" cy="361293"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800"/>
+            <a:t>mit Rückkühlung</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.71413</cdr:x>
+      <cdr:y>0.33228</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.81242</cdr:x>
+      <cdr:y>0.39239</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="Textfeld 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA83A596-A2F1-4DBB-AD94-640D01BAC3A2}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="20280742">
+          <a:off x="6643757" y="1997213"/>
+          <a:ext cx="914400" cy="361293"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800"/>
+            <a:t>ohne Rückkühlung</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2148,7 +2397,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2797,6 +3046,9 @@
       <c r="C24" t="s">
         <v>8</v>
       </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
@@ -2805,6 +3057,12 @@
       <c r="D25" t="s">
         <v>1</v>
       </c>
+      <c r="F25" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C26">
@@ -2813,6 +3071,12 @@
       <c r="D26">
         <v>0</v>
       </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C27">
@@ -2822,6 +3086,12 @@
         <f>0.5252*C27</f>
         <v>131.30000000000001</v>
       </c>
+      <c r="F27">
+        <v>250</v>
+      </c>
+      <c r="G27">
+        <v>115.05</v>
+      </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C28">
@@ -2830,6 +3100,12 @@
       <c r="D28">
         <f>75+0.2294*C28</f>
         <v>763.19999999999993</v>
+      </c>
+      <c r="F28">
+        <v>3000</v>
+      </c>
+      <c r="G28">
+        <v>568.20000000000005</v>
       </c>
     </row>
   </sheetData>
